--- a/Visualizing data from sql in tkinter/danezLaga.xlsx
+++ b/Visualizing data from sql in tkinter/danezLaga.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SymbiotyK\Desktop\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SymbiotyK\Desktop\gitHub\Python-projects\Visualizing data from sql in tkinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54399D1A-6250-4A30-931F-02A0BA42D191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79D593C-DA8E-40FF-8030-93C46D412C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS1" sheetId="3" r:id="rId1"/>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE1C14D-01AB-4787-A027-8B6A26EE9962}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C366"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +921,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="6">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="6">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="6">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>100</v>
       </c>
       <c r="C31" s="6">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>126</v>
       </c>
       <c r="C38" s="6">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>45329</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C40" s="6">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,10 @@
         <v>45330</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,10 +1226,10 @@
         <v>45331</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,10 +1248,10 @@
         <v>45333</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,10 +1259,10 @@
         <v>45334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,10 +1270,10 @@
         <v>45335</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C46" s="6">
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,10 +1281,10 @@
         <v>45336</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1292,10 +1292,10 @@
         <v>45337</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,10 +1303,10 @@
         <v>45338</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,10 +1336,10 @@
         <v>45341</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C52" s="6">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,10 +1347,10 @@
         <v>45342</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,10 +1358,10 @@
         <v>45343</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,10 +1369,10 @@
         <v>45344</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C55" s="6">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
         <v>45345</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,10 +1413,10 @@
         <v>45348</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,10 +1424,10 @@
         <v>45349</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C60" s="6">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,10 +1435,10 @@
         <v>45350</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C61" s="6">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4808,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4869,7 +4869,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -4953,7 +4953,7 @@
         <v>118</v>
       </c>
       <c r="C10" s="6">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4967,7 +4967,7 @@
         <v>162</v>
       </c>
       <c r="C11" s="6">
-        <v>0.52</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -4981,7 +4981,7 @@
         <v>126</v>
       </c>
       <c r="C12" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4995,7 +4995,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="6">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -5079,7 +5079,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="6">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5149,7 +5149,7 @@
         <v>148</v>
       </c>
       <c r="C24" s="6">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -5191,7 +5191,7 @@
         <v>183</v>
       </c>
       <c r="C27" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -5205,7 +5205,7 @@
         <v>142</v>
       </c>
       <c r="C28" s="6">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -5233,7 +5233,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="6">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -5247,7 +5247,7 @@
         <v>138</v>
       </c>
       <c r="C31" s="6">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -5289,7 +5289,7 @@
         <v>171</v>
       </c>
       <c r="C34" s="6">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -5303,7 +5303,7 @@
         <v>149</v>
       </c>
       <c r="C35" s="6">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -5345,7 +5345,7 @@
         <v>199</v>
       </c>
       <c r="C38" s="6">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -5359,7 +5359,7 @@
         <v>170</v>
       </c>
       <c r="C39" s="6">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -5370,10 +5370,10 @@
         <v>45329</v>
       </c>
       <c r="B40">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="C40" s="6">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -5384,10 +5384,10 @@
         <v>45330</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -5398,10 +5398,10 @@
         <v>45331</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -5426,10 +5426,10 @@
         <v>45333</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -5440,10 +5440,10 @@
         <v>45334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -5454,10 +5454,10 @@
         <v>45335</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="C46" s="6">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -5468,10 +5468,10 @@
         <v>45336</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -5482,10 +5482,10 @@
         <v>45337</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -5496,10 +5496,10 @@
         <v>45338</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -5510,10 +5510,10 @@
         <v>45339</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -5524,10 +5524,10 @@
         <v>45340</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C51" s="6">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -5538,10 +5538,10 @@
         <v>45341</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C52" s="6">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -5552,10 +5552,10 @@
         <v>45342</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -5566,10 +5566,10 @@
         <v>45343</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -5580,10 +5580,10 @@
         <v>45344</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C55" s="6">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -5594,10 +5594,10 @@
         <v>45345</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -5608,10 +5608,10 @@
         <v>45346</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C57" s="6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -5622,10 +5622,10 @@
         <v>45347</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C58" s="6">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -5636,10 +5636,10 @@
         <v>45348</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -5650,10 +5650,10 @@
         <v>45349</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C60" s="6">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -5664,10 +5664,10 @@
         <v>45350</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C61" s="6">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -9957,7 +9957,7 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C366"/>
+      <selection activeCell="C2" sqref="C2:C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10004,7 +10004,7 @@
         <v>45293</v>
       </c>
       <c r="B4">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="C4" s="6">
         <v>0.2</v>
@@ -10015,7 +10015,7 @@
         <v>45294</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6">
         <v>0.02</v>
@@ -10026,7 +10026,7 @@
         <v>45295</v>
       </c>
       <c r="B6">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C6" s="6">
         <v>0.15</v>
@@ -10037,7 +10037,7 @@
         <v>45296</v>
       </c>
       <c r="B7">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="C7" s="6">
         <v>0.27</v>
@@ -10070,7 +10070,7 @@
         <v>45299</v>
       </c>
       <c r="B10">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C10" s="6">
         <v>0.23</v>
@@ -10081,7 +10081,7 @@
         <v>45300</v>
       </c>
       <c r="B11">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6">
         <v>0.42</v>
@@ -10092,7 +10092,7 @@
         <v>45301</v>
       </c>
       <c r="B12">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6">
         <v>0.01</v>
@@ -10103,7 +10103,7 @@
         <v>45302</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6">
         <v>0.06</v>
@@ -10114,7 +10114,7 @@
         <v>45303</v>
       </c>
       <c r="B14">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6">
         <v>0.49</v>
@@ -10147,7 +10147,7 @@
         <v>45306</v>
       </c>
       <c r="B17">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="C17" s="6">
         <v>0.09</v>
@@ -10158,7 +10158,7 @@
         <v>45307</v>
       </c>
       <c r="B18">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="C18" s="6">
         <v>0.32</v>
@@ -10169,7 +10169,7 @@
         <v>45308</v>
       </c>
       <c r="B19">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="C19" s="6">
         <v>0.24</v>
@@ -10180,7 +10180,7 @@
         <v>45309</v>
       </c>
       <c r="B20">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="C20" s="6">
         <v>0.37</v>
@@ -10191,7 +10191,7 @@
         <v>45310</v>
       </c>
       <c r="B21">
-        <v>437</v>
+        <v>120</v>
       </c>
       <c r="C21" s="6">
         <v>0.66</v>
@@ -10202,7 +10202,7 @@
         <v>45311</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6">
         <v>0.27</v>
@@ -10224,7 +10224,7 @@
         <v>45313</v>
       </c>
       <c r="B24">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C24" s="6">
         <v>0.21</v>
@@ -10235,7 +10235,7 @@
         <v>45314</v>
       </c>
       <c r="B25">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="C25" s="6">
         <v>0.3</v>
@@ -10246,7 +10246,7 @@
         <v>45315</v>
       </c>
       <c r="B26">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C26" s="6">
         <v>0.49</v>
@@ -10257,7 +10257,7 @@
         <v>45316</v>
       </c>
       <c r="B27">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C27" s="6">
         <v>0.47</v>
@@ -10268,7 +10268,7 @@
         <v>45317</v>
       </c>
       <c r="B28">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="C28" s="6">
         <v>0.48</v>
@@ -10290,7 +10290,7 @@
         <v>45319</v>
       </c>
       <c r="B30">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="C30" s="6">
         <v>0.77</v>
@@ -10301,7 +10301,7 @@
         <v>45320</v>
       </c>
       <c r="B31">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="C31" s="6">
         <v>0.37</v>
@@ -10312,7 +10312,7 @@
         <v>45321</v>
       </c>
       <c r="B32">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="C32" s="6">
         <v>0.48</v>
@@ -10323,7 +10323,7 @@
         <v>45322</v>
       </c>
       <c r="B33">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C33" s="6">
         <v>0.86</v>
@@ -10334,7 +10334,7 @@
         <v>45323</v>
       </c>
       <c r="B34">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="C34" s="6">
         <v>0.72</v>
@@ -10345,7 +10345,7 @@
         <v>45324</v>
       </c>
       <c r="B35">
-        <v>385</v>
+        <v>58</v>
       </c>
       <c r="C35" s="6">
         <v>0.75</v>
@@ -10378,7 +10378,7 @@
         <v>45327</v>
       </c>
       <c r="B38">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="C38" s="6">
         <v>0.75</v>
@@ -10389,7 +10389,7 @@
         <v>45328</v>
       </c>
       <c r="B39">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="C39" s="6">
         <v>0.77</v>
@@ -10400,10 +10400,10 @@
         <v>45329</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C40" s="6">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -10411,10 +10411,10 @@
         <v>45330</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10422,10 +10422,10 @@
         <v>45331</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -10455,10 +10455,10 @@
         <v>45334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -10466,10 +10466,10 @@
         <v>45335</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C46" s="6">
-        <v>0</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -10477,10 +10477,10 @@
         <v>45336</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -10488,10 +10488,10 @@
         <v>45337</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -10499,10 +10499,10 @@
         <v>45338</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10532,10 +10532,10 @@
         <v>45341</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C52" s="6">
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10543,10 +10543,10 @@
         <v>45342</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -10554,10 +10554,10 @@
         <v>45343</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -10565,10 +10565,10 @@
         <v>45344</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="C55" s="6">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -10576,10 +10576,10 @@
         <v>45345</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10609,10 +10609,10 @@
         <v>45348</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -10620,10 +10620,10 @@
         <v>45349</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="C60" s="6">
-        <v>0</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -22098,7 +22098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E4F0F2-4838-4A27-BD17-A4CF9DC2F43A}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
